--- a/INTLINE/data/223/SIDRA/old/Table 1736 indice.xlsx
+++ b/INTLINE/data/223/SIDRA/old/Table 1736 indice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="526">
   <si>
     <t>Tabela 1736 - INPC - Série histórica com número-índice, variação mensal e variações acumuladas em 3 meses, em 6 meses, no ano e em 12 meses (a partir de abril/1979)</t>
   </si>
@@ -1566,6 +1566,15 @@
   </si>
   <si>
     <t>novembro 2021</t>
+  </si>
+  <si>
+    <t>dezembro 2021</t>
+  </si>
+  <si>
+    <t>janeiro 2022</t>
+  </si>
+  <si>
+    <t>fevereiro 2022</t>
   </si>
   <si>
     <t>INPC - Número-índice (base: dezembro de 1993 = 100) (Número-índice)</t>
@@ -1694,7 +1703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ST7"/>
+  <dimension ref="A1:SW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,7 +1711,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="514" width="19.285714285714285"/>
+    <col min="1" max="517" width="19.285714285714285"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,6 +3257,15 @@
       <c r="ST1" s="1">
         <v/>
       </c>
+      <c r="SU1" s="1">
+        <v/>
+      </c>
+      <c r="SV1" s="1">
+        <v/>
+      </c>
+      <c r="SW1" s="1">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -4792,6 +4810,15 @@
       <c r="ST2" s="2">
         <v/>
       </c>
+      <c r="SU2" s="2">
+        <v/>
+      </c>
+      <c r="SV2" s="2">
+        <v/>
+      </c>
+      <c r="SW2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -6336,6 +6363,15 @@
       <c r="ST3" s="2">
         <v/>
       </c>
+      <c r="SU3" s="2">
+        <v/>
+      </c>
+      <c r="SV3" s="2">
+        <v/>
+      </c>
+      <c r="SW3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -7880,10 +7916,19 @@
       <c r="ST4" t="s" s="2">
         <v>516</v>
       </c>
+      <c r="SU4" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="SV4" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="SW4" t="s" s="2">
+        <v>519</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="3">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B5" s="4">
         <v>0.0000000055765</v>
@@ -9423,47 +9468,56 @@
       </c>
       <c r="ST5" s="4">
         <v>6284.7100000000000</v>
+      </c>
+      <c r="SU5" s="4">
+        <v>6330.5900000000000</v>
+      </c>
+      <c r="SV5" s="4">
+        <v>6373.0000000000000</v>
+      </c>
+      <c r="SW5" s="4">
+        <v>6436.7300000000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G6" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H6" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I6" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="J6" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K6" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="M6" t="s" s="4">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="N6" s="4">
         <v>75.11</v>
@@ -10967,11 +11021,20 @@
       </c>
       <c r="ST6" s="4">
         <v>10.96</v>
+      </c>
+      <c r="SU6" s="4">
+        <v>10.16</v>
+      </c>
+      <c r="SV6" s="4">
+        <v>10.60</v>
+      </c>
+      <c r="SW6" s="4">
+        <v>10.80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B7" s="2">
         <v/>
@@ -12510,16 +12573,25 @@
         <v/>
       </c>
       <c r="ST7" s="2">
+        <v/>
+      </c>
+      <c r="SU7" s="2">
+        <v/>
+      </c>
+      <c r="SV7" s="2">
+        <v/>
+      </c>
+      <c r="SW7" s="2">
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:ST1"/>
-    <mergeCell ref="A2:ST2"/>
+    <mergeCell ref="A1:SW1"/>
+    <mergeCell ref="A2:SW2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:ST3"/>
-    <mergeCell ref="A7:ST7"/>
+    <mergeCell ref="B3:SW3"/>
+    <mergeCell ref="A7:SW7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12540,12 +12612,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="5">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
